--- a/Documentación/Psp's/Tania/Clase SC_Lectura/MetricasGenerales.xlsx
+++ b/Documentación/Psp's/Tania/Clase SC_Lectura/MetricasGenerales.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8790" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="excel (1)" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Report generated at 9:01 PM on Dec 3, 2018</t>
+    <t>Report generated at 9:52 PM on Dec 6, 2018</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1077,10 @@
         <v>7.15</v>
       </c>
       <c r="C8" s="7">
-        <v>8.76</v>
+        <v>8.39</v>
       </c>
       <c r="D8" s="7">
-        <v>25.2</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
         <v>0.22361111111111109</v>
       </c>
       <c r="D10" s="10">
-        <v>0.36527777777777781</v>
+        <v>0.41875000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,10 +1153,10 @@
         <v>11.5</v>
       </c>
       <c r="C14" s="7">
-        <v>42.6</v>
+        <v>44.4</v>
       </c>
       <c r="D14" s="7">
-        <v>9.0500000000000007</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,10 +1167,10 @@
         <v>28.7</v>
       </c>
       <c r="C15" s="7">
-        <v>63.8</v>
+        <v>66.7</v>
       </c>
       <c r="D15" s="7">
-        <v>22.6</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="D16" s="12">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1195,10 +1195,10 @@
         <v>58.4</v>
       </c>
       <c r="C17" s="7">
-        <v>35.200000000000003</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D17" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="D18" s="14">
-        <v>0.29099999999999998</v>
+        <v>0.27400000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>0.115</v>
       </c>
       <c r="D19" s="14">
-        <v>0.124</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
         <v>2.97</v>
       </c>
       <c r="D20" s="7">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>0.05</v>
       </c>
       <c r="D21" s="7">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
